--- a/Processing/Demographics.Facebook.Processing/Data/1-DataFolha-20171130-Haddad.xlsx
+++ b/Processing/Demographics.Facebook.Processing/Data/1-DataFolha-20171130-Haddad.xlsx
@@ -590,49 +590,49 @@
         <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0</v>
+        <v>5.25</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0</v>
+        <v>52.55474453</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0</v>
+        <v>47.44525547</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0</v>
+        <v>25.14285714</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0</v>
+        <v>17.52380952</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0</v>
+        <v>14.47619048</v>
       </c>
       <c r="H10" s="1">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="I10" s="1">
-        <v>0.0</v>
+        <v>22.85714286</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0</v>
+        <v>39.44223108</v>
       </c>
       <c r="K10" s="1">
-        <v>0.0</v>
+        <v>36.65338645</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0</v>
+        <v>23.90438247</v>
       </c>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>23.41197822</v>
       </c>
       <c r="N10" s="1">
-        <v>0.0</v>
+        <v>51.72413793</v>
       </c>
       <c r="O10" s="1">
-        <v>0.0</v>
+        <v>14.70054446</v>
       </c>
       <c r="P10" s="1">
-        <v>0.0</v>
+        <v>10.16333938</v>
       </c>
     </row>
     <row r="11">
